--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56C943-D4D1-CF45-90DF-A5E41A2B9F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0396770-A446-5449-94EE-3F322C94B624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -250,11 +250,7 @@
   <dxfs count="7">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -269,7 +265,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2527,6 +2527,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46040E47-F5D6-BDC3-6ED2-A0F280D16219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="838200"/>
+          <a:ext cx="7772400" cy="2310469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5744,14 +5788,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}" name="表1" displayName="表1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}" name="表1" displayName="表1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E15" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F85F0879-CDA9-AF44-AC78-D55487A6CFC9}" name="日付" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1FCA0AB4-3826-6A44-8A31-B715C6D53F02}" name="当日の進歩" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{614655FC-56A3-8B4E-A35E-DBAB36A3F9A4}" name="翌日の予定" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{41B75974-3D8A-AC4C-B90D-64B2A563DDCE}" name="問題点" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{FADDA463-5432-AE46-A1E4-F2FC0021EAF5}" name="備考" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F85F0879-CDA9-AF44-AC78-D55487A6CFC9}" name="日付" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1FCA0AB4-3826-6A44-8A31-B715C6D53F02}" name="当日の進歩" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{614655FC-56A3-8B4E-A35E-DBAB36A3F9A4}" name="翌日の予定" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{41B75974-3D8A-AC4C-B90D-64B2A563DDCE}" name="問題点" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{FADDA463-5432-AE46-A1E4-F2FC0021EAF5}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6329,7 +6373,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0396770-A446-5449-94EE-3F322C94B624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19D267-D34C-E448-A9F9-9F4DC0C18BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
+    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="進歩状況" sheetId="3" r:id="rId1"/>
@@ -6120,8 +6120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -6165,7 +6165,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="3">
+        <v>45603</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -6372,7 +6376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543388E-A90E-0745-ADE0-D2E308161631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F3B7D-C289-BC4A-8D9B-AB871EEC2FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
+    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="進歩状況" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>CREATE TABLE `adjustmentdetail` (</t>
   </si>
@@ -212,13 +212,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ファイルをサーバーにアップロードする問題はまだ解決していません。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSページの進捗：
+アップロード機能 90% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EMSMページ：
 ①フロントエンドコーディング 30% 目標
+EMSページ：
 ②バックエンド接続 95% 目標。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ファイルをサーバーにアップロードする問題はまだ解決していません。</t>
+    <t>EMSMページ：
+①フロントエンドコーディング 30% 目標。
+EMSページ：
+②バックエンド接続 100% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アップロード機能は実装済みですが、現在、ファイルをアップロードするとサーバーエラーが発生し、まだ解決できていません。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/12出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1920,21 +1942,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;div th:if="${requstFileI1ULStatus == 1}"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;a th:href="@{|/download/${requstFile1Name}|}" th:text="${requstFile1Name}"&gt;&lt;/a&gt;</a:t>
+            <a:t>&lt;div th:if="${requestFile1ULStatus == 1}"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;a th:href="@{|/download/${requestFile1Name}|}" th:text="${requestFile1Name}"&gt;&lt;/a&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1962,21 +1984,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;div th:if="${requstFileI2ULStatus == 1}"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;a th:href="@{|/download/${requstFile2Name}|}" th:text="${requstFile2Name}"&gt;&lt;/a&gt;</a:t>
+            <a:t>&lt;div th:if="${requestFile2ULStatus == 1}"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;a th:href="@{|/download/${requestFile2Name}|}" th:text="${requestFile2Name}"&gt;&lt;/a&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2023,7 +2045,21 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2073,7 +2109,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2084,7 +2120,283 @@
             </a:rPr>
             <a:t>&lt;td&gt;</a:t>
           </a:r>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div class="upload-area"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;input type="file" id="fileUpload" multiple class="file-input" onchange="updateFileList()"/&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;label for="fileUpload" class="custom-button"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>label&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;ul id="fileList"&gt;&lt;/ul&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/table&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div class="button-container"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;button onclick="submitFiles()"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>確定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>button&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>新增结果表格 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -2096,56 +2408,56 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;div class="upload-area"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;input type="file" id="fileUpload" multiple class="file-input"/&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;label for="fileUpload" class="custom-button"&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルを</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;th&gt;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2157,7 +2469,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>選択</a:t>
+            <a:t>結果</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -2181,69 +2493,594 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>label&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;ul id="fileList" </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>file-list</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&gt;&lt;/ul&gt;</a:t>
+            <a:t>th&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;td th:each="file : ${resultFiles}"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;a th:if="${file != null}" th:href="@{|/download/${file.fileName}|}" th:text="${file.fileName}"&gt;&lt;/a&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/table&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>履歴表格 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;th class="history-header" rowspan="11"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>履歴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;th class="year-header"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;th class="file-name-header"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;th:block th:each="year, stat : ${pastYears}"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;td class="year-header" th:text="${year}"&gt;&lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;td class="file-name-cell"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;th:block th:if="${histories.size() &gt; stat.index}"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div th:each="file : ${histories[stat.index]}"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;a th:if="${file != null}" th:href="@{|/download/${file.fileName}|}" th:text="${file.fileName}"&gt;&lt;/a&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/th:block&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/td&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/tr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/th:block&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/table&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;script&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function updateFileList() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const input = document.getElementById('fileUpload');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const fileList = document.getElementById('fileList');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fileList.innerHTML = ''; // Clear existing list</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2279,86 +3116,77 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;/div&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/td&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/tr&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/table&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;div class="button-container"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;button onclick="submitFiles()"&gt;</a:t>
+            <a:t>Array.from(input.files).forEach((file, index) =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const li = document.createElement('li');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>li.textContent = file.name;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>li.classList.add('file-item');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const deleteBtn = document.createElement('button');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deleteBtn.textContent = '</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2370,7 +3198,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>確定</a:t>
+            <a:t>削除</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -2382,777 +3210,91 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>button&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/div&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;!-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>新增结果表格 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>--&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>table&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;tr&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;th&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>結果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>th&gt; &lt;!-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>表头 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>--&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>td th:each="file : ${resultFiles}"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;a th:if="${file != null}" th:href="@{|/download/${file.fileName}|}" th:text="${file.fileName}"&gt;&lt;/a&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/td&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/tr&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/table&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;!-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>履歴表格 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>--&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>table&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;tr&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;th class="history-header" rowspan="11"&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>履歴</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>th&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;th class="year-header"&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>年度</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>th&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;th class="file-name-header"&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>文件名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>th&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/tr&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;th:block th:each="year, stat : ${pastYears}"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;tr&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;td class="year-header" th:text="${year}"&gt;&lt;/td&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;td class="file-name-cell"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;!-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>仅在列表存在且有足够元素时尝试访问 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>--&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>th:block th:if="${histories.size() &gt; stat.index}"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;div th:each="file : ${histories[stat.index]}"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;a th:if="${file != null}" th:href="@{|/download/${file.fileName}|}" th:text="${file.fileName}"&gt;&lt;/a&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/div&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/th:block&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/td&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/tr&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/th:block&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/table&gt;</a:t>
+            <a:t>';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deleteBtn.className = 'delete-btn';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deleteBtn.onclick = function() { this.parentElement.remove(); };</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>li.appendChild(deleteBtn);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fileList.appendChild(li);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3178,6 +3320,194 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function submitFiles() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const files = document.getElementById('fileUpload').files;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (files.length === 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alert('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>してください。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const formData = new FormData();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for (let i = 0; i &lt; files.length; i++) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>formData.append('file', files[i]);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:br>
             <a:rPr lang="en" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -3200,207 +3530,71 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;/div&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;script&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>document.getElementById('fileUpload').addEventListener('change', uploadFiles);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>function uploadFiles() {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>const input = document.getElementById('fileUpload');</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>const fileList = document.getElementById('fileList');</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>fileList.innerHTML = ''; // Clear existing list</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Array.from(input.files).forEach((file, index) =&gt; {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>const li = document.createElement('li');</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>li.textContent = file.name;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>li.classList.add('file-item');</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>const deleteBtn = document.createElement('button');</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>deleteBtn.textContent = '</a:t>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fetch('/saveFileAndDetail', { </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>method: 'POST',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body: formData,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>credentials: 'include' // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>セッション</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -3412,8 +3606,34 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>削除</a:t>
-          </a:r>
+            <a:t>情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>維持</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -3424,82 +3644,166 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>deleteBtn.className = 'delete-btn';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>deleteBtn.onclick = function() { this.parentElement.remove(); };</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>li.appendChild(deleteBtn);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>fileList.appendChild(li);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>});</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then(response =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (response.ok) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return response.json();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>} else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>throw new Error('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>サーバーで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>問題</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>発生</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3513,72 +3817,248 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>function submitFiles() {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>const files = document.getElementById('fileUpload').files;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>const formData = new FormData();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for (let i = 0; i &lt; files.length; i++) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>formData.append('files', files[i]);</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then(data =&gt; alert('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルのアップロードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>成功</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>data))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.catch(error =&gt; alert('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルのアップロードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>error));</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3594,98 +4074,6 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>fetch('/upload', { method: 'POST', body: formData })</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.then(response =&gt; response.json())</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.then(data =&gt; console.log('Success:', data))</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.catch((error) =&gt; console.error('Error:', error));</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3743,15 +4131,15 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63787</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{668747B9-70FD-9A3C-0B59-727B5DE9332B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23200D00-B4C2-7109-157C-6CB4E9E5E6AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,7 +4156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8255000" y="609600"/>
-          <a:ext cx="7772400" cy="3924587"/>
+          <a:ext cx="7772400" cy="4165070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3847,17 +4235,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -3879,6 +4256,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>import java.io.IOException;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>import java.time.LocalDate;</a:t>
           </a:r>
         </a:p>
@@ -3939,17 +4330,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -3975,17 +4355,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4021,6 +4390,34 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>import org.springframework.http.HttpStatus;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.springframework.http.ResponseEntity;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>import org.springframework.stereotype.Controller;</a:t>
           </a:r>
         </a:p>
@@ -4123,31 +4520,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>import org.springframework.web.servlet.mvc.support.RedirectAttributes;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4187,17 +4559,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4233,7 +4594,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>* </a:t>
+            <a:t> * </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -4259,7 +4620,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>*</a:t>
+            <a:t> *</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -4273,15 +4634,6 @@
             </a:rPr>
             <a:t>/</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4324,17 +4676,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4356,35 +4697,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>@Autowired</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>private AdjustmentService adjustmentService;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:t>	@Autowired</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    private AdjustmentService adjustmentService;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4406,21 +4736,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>/**</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -4432,10 +4762,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>显示年终调整页面。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>年末調整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ページを</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -4446,10 +4786,36 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+            <a:t>表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4461,104 +4827,56 @@
             <a:t>@</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> model Spring MVC Model</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> session HttpSession</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param model Spring MVC Model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * @param session HttpSession</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * @return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ビュー</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -4570,7 +4888,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>视图名称</a:t>
+            <a:t>名</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4584,7 +4902,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>*</a:t>
+            <a:t>     *</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -4598,15 +4916,6 @@
             </a:rPr>
             <a:t>/</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4619,7 +4928,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>@</a:t>
+            <a:t>    @</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en" altLang="zh-CN" sz="1100">
@@ -4645,203 +4954,122 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>public String showAdjustmentPage(Model model, HttpSession session) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (session.getAttribute("userMailAdress") == null) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "redirect:/login";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>int currentYear = LocalDate.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>now</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>().getYear();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>List&lt;Integer&gt; years = IntStream.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>rangeClosed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(1, 10)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.mapToObj(i -&gt; currentYear - i)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.collect(Collectors.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>toList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:t>    public String showAdjustmentPage(Model model, HttpSession session) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (session.getAttribute("userMailAdress") == null) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return "redirect:/login";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        int currentYear = LocalDate.now().getYear();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        List&lt;Integer&gt; years = IntStream.rangeClosed(1, 10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                       .mapToObj(i -&gt; currentYear - i)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                                       .collect(Collectors.toList());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4863,21 +5091,49 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>String employeeId = (String) session.getAttribute("userMailAdress");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>// </a:t>
+            <a:t>        String employeeId = (String) session.getAttribute("userMailAdress");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        List&lt;AdjustmentFile&gt; histories = adjustmentService.getHistoricalFiles(employeeId);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (histories == null) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            histories = new ArrayList&lt;&gt;();  // </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -4889,49 +5145,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>获取历史文件列表</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>List&lt;AdjustmentFile&gt; histories = adjustmentService.getHistoricalFiles(employeeId);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (histories == null) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>histories = new ArrayList&lt;&gt;(); // </a:t>
+            <a:t>必</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ず</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>histories</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -4943,36 +5193,36 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>确保</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>histories</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>非空</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:t>空</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>にしない</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4983,7 +5233,9 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -4994,28 +5246,18 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -5040,35 +5282,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>model.addAttribute("pastYears", years);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>model.addAttribute("histories", histories);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:t>        model.addAttribute("pastYears", years);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        model.addAttribute("histories", histories);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5081,56 +5312,33 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "ems/adjustment";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return "ems/adjustment";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5142,17 +5350,559 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルのアップロードを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param file </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アップロードされたファイル</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param session HttpSession</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * @return ResponseEntity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    @PostMapping("/saveFileAndDetail")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public ResponseEntity&lt;?&gt; handleSaveFileAndDetail(@RequestParam("files") MultipartFile[] files, HttpSession session) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        String employeeId = (String) session.getAttribute("userMailAdress");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (employeeId == null) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return ResponseEntity.status(HttpStatus.FORBIDDEN).body("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログインしていません</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>try {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            adjustmentService.saveFilesAndDetails(files, employeeId, "type_here", LocalDate.now().getYear());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return ResponseEntity.ok("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>てのファイルのアップロードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>成功</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        } </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>catch (IOException e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return ResponseEntity.status(HttpStatus.INTERNAL_SERVER_ERROR).body("</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のファイルのアップロードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: " + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>e.getMessage());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5164,17 +5914,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5186,424 +5925,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/**</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>处理文件上传请求。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> files </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>上传的文件数组</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> session HttpSession</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> redirectAttributes </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>重定向属性</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>重定向到成功页面</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PostMapping("/upload")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public String handleFileUpload(@RequestParam("files") MultipartFile[] files, HttpSession session, RedirectAttributes redirectAttributes) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>String employeeId = (String) session.getAttribute("userMailAdress");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (employeeId == null) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "redirect:/login";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5615,330 +5936,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>try {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for (MultipartFile file : files) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>adjustmentService.saveFileAndDetail(file, employeeId, "type_here", LocalDate.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>now</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>().getYear()); // Replace "type_here" with actual file type if needed</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>redirectAttributes.addFlashAttribute("message", "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルアップロード</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>成功</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>しました</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>");</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>catch (Exception e) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>redirectAttributes.addFlashAttribute("error", "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルアップロード</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>失敗</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>しました</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>e.getMessage());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5951,56 +5948,345 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "redirect:/adjustment";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>处理文件上传请求。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param files </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上传的文件数组</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param session HttpSession</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * @param redirectAttributes </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重定向属性</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重定向到成功页面</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    @</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PostMapping("/upload")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public String handleFileUpload(@RequestParam("files") MultipartFile[] files, HttpSession session, RedirectAttributes redirectAttributes) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        String employeeId = (String) session.getAttribute("userMailAdress");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (employeeId == null) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return "redirect:/login";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -6012,17 +6298,238 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        try {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            for (MultipartFile file : files) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                adjustmentService.saveFileAndDetail(file, employeeId, "type_here", LocalDate.now().getYear());  // Replace "type_here" with actual file type if needed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            redirectAttributes.addFlashAttribute("message", "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルアップロード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>成功</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        } </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>catch (Exception e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            redirectAttributes.addFlashAttribute("error", "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルアップロード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>" + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>e.getMessage());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -6044,185 +6551,39 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>/**</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>处理文件下载请求。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>param</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> filename </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>请求下载的文件名</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>文件的字节数组</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:t>        return "redirect:/adjustment";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -6233,6 +6594,69 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>处理文件下载请求。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
@@ -6255,6 +6679,120 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>param filename </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>请求下载的文件名</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件的字节数组</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    @</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>GetMapping("/download/{filename}")</a:t>
           </a:r>
         </a:p>
@@ -6269,61 +6807,49 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>@ResponseBody</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public byte[] downloadFile(@PathVariable String filename) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> adjustmentService.downloadFile(filename);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
+            <a:t>    @ResponseBody</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public byte[] downloadFile(@PathVariable String filename) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return adjustmentService.downloadFile(filename);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6870,35 +7396,407 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>    public void saveFileAndDetail(MultipartFile file, String employeeId, String fileType, Integer fileYear) throws IOException {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        String fileName = file.getOriginalFilename();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        String filePath = Paths.get("uploads", employeeId, fileName).toString();</a:t>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>保存文件和详情到服务器和数据库</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param file </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param employeeId </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>员工</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * @param fileType </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件类型</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param fileYear </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件年份</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>throws IOException </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果文件操作失败</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public void saveFilesAndDetails(MultipartFile[] files, String employeeId, String fileType, Integer fileYear) throws IOException {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        for (MultipartFile file : files) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            if (!file.isEmpty()) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                saveFileAndDetail(file, employeeId, fileType, fileYear);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6923,7 +7821,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        // </a:t>
+            <a:t>    // </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -6935,7 +7833,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>确保目录存在</a:t>
+            <a:t>原有的保存单个文件的方法</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6949,61 +7847,47 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Path destinationFile = Paths.get("uploads").resolve(Paths.get(employeeId, fileName)).normalize().toAbsolutePath();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        if (!Files.exists(destinationFile.getParent())) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            Files.createDirectories(destinationFile.getParent());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        }</a:t>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private void saveFileAndDetail(MultipartFile file, String employeeId, String fileType, Integer fileYear) throws IOException {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        String originalFileName = file.getOriginalFilename();  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Path employeeDirectory = Paths.get("/work/2024", employeeId);  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7028,21 +7912,35 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        // Save the file locally</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        Files.copy(file.getInputStream(), destinationFile, StandardCopyOption.REPLACE_EXISTING);</a:t>
+            <a:t>        if (!Files.exists(employeeDirectory)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            Files.createDirectories(employeeDirectory);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7067,105 +7965,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        // Save file info to database</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        AdjustmentFile adjustmentFile = new AdjustmentFile();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        adjustmentFile.setEmployeeID(employeeId);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        adjustmentFile.setFileType(fileType);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        adjustmentFile.setFileYear(fileYear);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        adjustmentFile.setFileName(fileName);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        adjustmentFile.setFilePath(destinationFile.toString());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        fileMapper.insertFile(adjustmentFile);</a:t>
+            <a:t>        Path destinationFile = employeeDirectory.resolve(originalFileName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Files.copy(file.getInputStream(), destinationFile, StandardCopyOption.REPLACE_EXISTING);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7190,133 +8004,91 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>        // Example for AdjustmentDetail</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        AdjustmentDetail detail = new AdjustmentDetail();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        detail.setYear(LocalDate.now().getYear());  // Use LocalDate to get the current year</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        detail.setEmployeeID(employeeId);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        detail.setUploadStatus("1");  // Assuming '1' means uploaded</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        detail.setAdjustmentStatus("0");  // Assuming '0' means not adjusted</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        detail.setInsertDate(new Date());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        detail.setUpdateDate(new Date());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        detailMapper.insertDetail(detail);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    }</a:t>
+            <a:t>        AdjustmentFile adjustmentFile = new AdjustmentFile();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        adjustmentFile.setEmployeeID(employeeId);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        adjustmentFile.setFileType(fileType);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        adjustmentFile.setFileYear(fileYear);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        adjustmentFile.setFileName(originalFileName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        adjustmentFile.setFilePath(destinationFile.toString());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        fileMapper.insertFile(adjustmentFile);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7331,6 +8103,132 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        AdjustmentDetail detail = new AdjustmentDetail();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        detail.setYear(LocalDate.now().getYear());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        detail.setEmployeeID(employeeId);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        detail.setUploadStatus("1");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        detail.setAdjustmentStatus("0");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        detail.setInsertDate(new Date());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        detail.setUpdateDate(new Date());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        detailMapper.insertDetail(detail);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -7342,340 +8240,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    /**</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     * </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>上传文件到服务器指定目录</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     * </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>param file </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>文件</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     * </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>param employeeId </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>员工</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     */</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    public void uploadFile(MultipartFile file, String employeeId) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        try {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            Path destinationFile = this.rootLocation.resolve(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                Paths.get(employeeId)).normalize().toAbsolutePath();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            if (!Files.exists(destinationFile)) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                Files.createDirectories(destinationFile);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            file.transferTo(destinationFile.resolve(file.getOriginalFilename()));</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        } catch (Exception e) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>            throw new RuntimeException("Failed to store file.", e);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>        }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>    }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -7723,6 +8287,351 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>上传文件到服务器指定目录</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param file </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>param employeeId </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>员工</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public void uploadFile(MultipartFile file, String employeeId) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        try {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            Path destinationFile = this.rootLocation.resolve(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                Paths.get(employeeId)).normalize().toAbsolutePath();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            if (!Files.exists(destinationFile)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                Files.createDirectories(destinationFile);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            file.transferTo(destinationFile.resolve(file.getOriginalFilename()));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        } catch (Exception e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            throw new RuntimeException("Failed to store file.", e);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>下载文件</a:t>
           </a:r>
         </a:p>
@@ -7903,7 +8812,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>            Path file = rootLocation.resolve(filename);</a:t>
+            <a:t>            Path file = Paths.get("/work/2024", filename.substring(0, filename.indexOf('/')), filename);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14874,11 +15783,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="3" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="55.83203125" customWidth="1"/>
   </cols>
@@ -14942,13 +15853,29 @@
         <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="114">
+      <c r="A5" s="3">
+        <v>45607</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -15156,7 +16083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F3B7D-C289-BC4A-8D9B-AB871EEC2FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843240C6-B11A-0C40-9A52-77E62BEB88AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
+    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="進歩状況" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>CREATE TABLE `adjustmentdetail` (</t>
   </si>
@@ -241,6 +241,20 @@
   </si>
   <si>
     <t>11/12出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSページの進捗：
+アップロード機能 95% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/13在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アップロード機能がすでに使えるようになったものの、アップロードしたファイルはまだ年度に分類されておらず、すべて履歴に表示されています。明日この問題を解決する予定です。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15783,8 +15797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -15876,7 +15890,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="114">
+      <c r="A6" s="3">
+        <v>45608</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -16083,7 +16113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843240C6-B11A-0C40-9A52-77E62BEB88AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11EEAB0-1ADE-A044-B620-F8E312EDB8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>CREATE TABLE `adjustmentdetail` (</t>
   </si>
@@ -255,6 +255,25 @@
   </si>
   <si>
     <t>アップロード機能がすでに使えるようになったものの、アップロードしたファイルはまだ年度に分類されておらず、すべて履歴に表示されています。明日この問題を解決する予定です。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/13出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アップロード機能完了しました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSページの進捗：
+アップロード機能完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMSMページ：
+①フロントエンドコーディング 50% 目標。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,8 +492,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -489,8 +508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1689100" y="622300"/>
-          <a:ext cx="7048500" cy="22377400"/>
+          <a:off x="863600" y="622300"/>
+          <a:ext cx="7048500" cy="27038300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4139,21 +4158,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101070</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23200D00-B4C2-7109-157C-6CB4E9E5E6AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974A9165-6AD7-DCEB-00BD-12F6C3606355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4169,8 +4188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8255000" y="609600"/>
-          <a:ext cx="7772400" cy="4165070"/>
+          <a:off x="8255000" y="203200"/>
+          <a:ext cx="7772400" cy="3895195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15797,8 +15816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -15907,7 +15926,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="57">
+      <c r="A7" s="3">
+        <v>45609</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -16113,7 +16148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A968EE8-0025-0C46-8406-C21A4463365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69365D5-B912-0647-966B-20E477C6A5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="3" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
+    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="進歩状況" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -53,13 +53,7 @@
     <t>CREATE TABLE `adjustmentRequest` (</t>
   </si>
   <si>
-    <t>CREATE TABLE `adjustmentfile` (</t>
-  </si>
-  <si>
     <t xml:space="preserve">    `fileID` INT AUTO_INCREMENT PRIMARY KEY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `fileType` VARCHAR(255) NOT NULL,  -- "detail" or "result" </t>
   </si>
   <si>
     <t xml:space="preserve">    `fileYear` INT NOT NULL,</t>
@@ -253,79 +247,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CREATE TABLE adjustmentdetail (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    id INT AUTO_INCREMENT PRIMARY KEY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    year VARCHAR(4) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    employeeEmail VARCHAR(255) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    uploadStatus VARCHAR(50),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    adjustmentStatus VARCHAR(50),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    insertDate DATETIME,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    updateDate DATETIME,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    INDEX(year, employeeEmail) -- 可选，提高查询效率</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `id` INT AUTO_INCREMENT PRIMARY KEY,  -- 使用自增主键</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `employeeEmail` VARCHAR(255) NOT NULL,  -- 记录上传的员工邮箱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `updateDate` DATE NOT NULL</t>
-  </si>
-  <si>
-    <t>CREATE TABLE `adjustmentrequestFiles` (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `fileID` INT AUTO_INCREMENT PRIMARY KEY,  -- 文件的自增主键</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `requestID` INT NOT NULL,  -- 关联到adjustmentRequest表的ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `fileName` VARCHAR(255) NOT NULL,  -- 文件名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `fileULStatus` VARCHAR(1) NOT NULL,  -- 上传状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `fileInsertDate` DATE NOT NULL,  -- 文件的上传日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `fileUpdateDate` DATE NOT NULL,  -- 文件的更新日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FOREIGN KEY (`requestID`) REFERENCES `adjustmentRequest`(`id`) ON DELETE CASCADE</t>
-  </si>
-  <si>
     <t xml:space="preserve">    `employeeEmail` VARCHAR(255) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    `filePath` VARCHAR(255) NOT NULL</t>
   </si>
   <si>
     <t>AdjustmentRequestMapper.java</t>
   </si>
   <si>
     <t>AdjustmentRequestMapper.xml</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `ofcfunction` MODIFY `functionName` VARCHAR(20);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `id` INT AUTO_INCREMENT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `employeeID` VARCHAR(6) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `updateDate` DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (`employeeID`) REFERENCES `employee`(`employeeID`) ON DELETE CASCADE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE adjustmentRequestFiles (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fileID INT AUTO_INCREMENT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    requestID INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fileName VARCHAR(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fileULStatus VARCHAR(1) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fileInsertDate DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fileUpdateDate DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (requestID) REFERENCES adjustmentRequest(id) ON DELETE CASCADE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `adjustmentDetail` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `year` VARCHAR(4) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `uploadStatus` VARCHAR(50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `adjustmentStatus` VARCHAR(50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `insertDate` DATETIME,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `updateDate` DATETIME,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (`employeeID`) REFERENCES `employee`(`employeeID`) ON DELETE CASCADE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INDEX(`year`, `employeeID`, `employeeEmail`)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE `adjustmentFile` (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `detailID` INT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `fileType` VARCHAR(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `filePath` VARCHAR(255) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (`detailID`) REFERENCES `adjustmentDetail`(`id`) ON DELETE CASCADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSMページ：
+①フロントエンドコーディング 80%完了。
+②バックエンド接続 30% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMSMページ：
+①フロントエンドコーディング 100% 目標。
+②バックエンド接続 80% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2062,7 +2081,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;a th:href="@{|/download/${requestFile1Name}|}" th:text="${requestFile1Name}"&gt;&lt;/a&gt;</a:t>
+            <a:t>&lt;a th:href="@{/download/{filename}(filename=${requestFile1Name})}" th:text="${requestFile1Name}"&gt;&lt;/a&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2104,7 +2123,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;a th:href="@{|/download/${requestFile2Name}|}" th:text="${requestFile2Name}"&gt;&lt;/a&gt;</a:t>
+            <a:t>&lt;a th:href="@{/download/{filename}(filename=${requestFile2Name})}" th:text="${requestFile2Name}"&gt;&lt;/a&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4357,17 +4376,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4463,17 +4471,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4499,17 +4496,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4717,17 +4703,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4767,17 +4742,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4817,17 +4781,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4839,17 +4792,20 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4871,35 +4827,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>@Autowired</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>private AdjustmentService adjustmentService;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:t>    @Autowired</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    private AdjustmentService adjustmentService;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -4921,103 +4866,164 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>@GetMapping("/adjustment")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public String showAdjustmentPage(Model model, HttpSession session) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>String employeeEmail = (String) session.getAttribute("userMailAdress");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (employeeEmail == null) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "redirect:/login";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:t>    @GetMapping("/adjustment")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public String showAdjustmentPage(Model model, HttpSession session) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        String employeeEmail = (String) session.getAttribute("userMailAdress");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (employeeEmail == null) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return "redirect:/login";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        int currentYear = LocalDate.now().getYear();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        model.addAttribute("currentYear", currentYear);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        Map&lt;Integer, List&lt;AdjustmentFile&gt;&gt; historiesByYear = adjustmentService.getHistoricalFilesGroupedByYear(employeeEmail);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        model.addAttribute("historiesByYear", historiesByYear);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return "ems/adjustment";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5039,45 +5045,178 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>int currentYear = LocalDate.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>now</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>().getYear();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:t>    @PostMapping("/saveFileAndDetail")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public ResponseEntity&lt;?&gt; handleSaveFileAndDetail(@RequestParam("files") MultipartFile[] files, HttpSession session) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        String employeeEmail = (String) session.getAttribute("userEmail");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (employeeEmail == null) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return ResponseEntity.status(HttpStatus.FORBIDDEN).body("{\"error\": \"User is not logged in\"}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        try {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            adjustmentService.saveFilesAndDetails(files, employeeEmail, LocalDate.now().getYear(), "detail");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return ResponseEntity.ok("{\"message\": \"File uploaded successfully\"}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        } catch (IOException e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return ResponseEntity.status(HttpStatus.INTERNAL_SERVER_ERROR).body("{\"error\": \"Error uploading file: " + e.getMessage() + "\"}");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5099,49 +5238,276 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>model.addAttribute("currentYear", currentYear);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Map&lt;Integer, List&lt;AdjustmentFile&gt;&gt; historiesByYear = adjustmentService.getHistoricalFilesGroupedByYear(employeeEmail);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>model.addAttribute("historiesByYear", historiesByYear);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
+            <a:t>    @GetMapping("/download/{fileYear}/{employeeEmail}/{filename}")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    @ResponseBody</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    public ResponseEntity&lt;Resource&gt; downloadFile(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            @PathVariable("fileYear") int fileYear,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            @PathVariable("employeeEmail") String employeeEmail,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            @PathVariable("filename") String filename) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        try {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            Path file = adjustmentService.getFilePath(filename, employeeEmail, fileYear);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            if (Files.exists(file)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                Resource resource = new UrlResource(file.toUri());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                return ResponseEntity.ok()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                        .header(HttpHeaders.CONTENT_DISPOSITION, "attachment; filename=\"" + resource.getFilename() + "\"")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                        .body(resource);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            } else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                return ResponseEntity.notFound().build();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        } catch (Exception e) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            return ResponseEntity.status(HttpStatus.INTERNAL_SERVER_ERROR).build();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5153,57 +5519,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "ems/adjustment";</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5215,17 +5530,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5237,17 +5541,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -5259,1258 +5552,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@PostMapping("/saveFileAndDetail")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public ResponseEntity&lt;?&gt; handleSaveFileAndDetail(@RequestParam("files") MultipartFile[] files, HttpSession session) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>String employeeEmail = (String) session.getAttribute("userMailAdress");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (employeeEmail == null) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ResponseEntity.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>status</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(HttpStatus.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FORBIDDEN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>).body("{\"error\": \"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ユーザーがログインしていません</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\"}");</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>try {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>adjustmentService.saveFilesAndDetails(files, employeeEmail, LocalDate.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>now</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>().getYear(), "detail");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ResponseEntity.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ok</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>("{\"message\": \"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルが</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>正常</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>にアップロードされました</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>\"}");</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>catch (IOException e) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ResponseEntity.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>status</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(HttpStatus.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INTERNAL_SERVER_ERROR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>).body("{\"error\": \"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルのアップロード</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>にエラーが</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>発生</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>しました</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>+</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>e.getMessage() + "\"}");</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@GetMapping("/download/{fileYear}/{employeeEmail}/{filename}")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@ResponseBody</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public ResponseEntity&lt;Resource&gt; downloadFile(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@PathVariable("fileYear") int fileYear,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@PathVariable("employeeEmail") String employeeEmail,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@PathVariable("filename") String filename) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>try {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Path file = adjustmentService.getFilePath(filename, employeeEmail, fileYear);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (Files.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>exists</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(file)) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Resource resource = new UrlResource(file.toUri());</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ResponseEntity.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ok</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>()</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.header(HttpHeaders.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CONTENT_DISPOSITION</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, "attachment; filename=\"" + resource.getFilename() + "\"")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.body(resource);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>} else {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ResponseEntity.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>notFound</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>().build();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>} catch (Exception e) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ResponseEntity.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>status</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(HttpStatus.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INTERNAL_SERVER_ERROR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>).build();</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="en" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -21498,8 +20539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -21511,19 +20552,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="152">
@@ -21531,16 +20572,16 @@
         <v>45602</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="114">
@@ -21548,16 +20589,16 @@
         <v>45603</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114">
@@ -21565,13 +20606,13 @@
         <v>45604</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="114">
@@ -21579,16 +20620,16 @@
         <v>45607</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="114">
@@ -21596,16 +20637,16 @@
         <v>45608</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="57">
@@ -21613,16 +20654,16 @@
         <v>45609</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="133">
@@ -21630,17 +20671,28 @@
         <v>45610</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="114">
+      <c r="A9" s="3">
+        <v>45611</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -21658,186 +20710,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48863C43-C921-ED48-90B0-7E1238AE724B}">
-  <dimension ref="B2:B43"/>
+  <dimension ref="B2:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>3</v>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>2</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>2</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -21851,15 +20948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -21873,65 +20968,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BA3962-57C2-4549-ABDD-D2E7DF611000}">
   <dimension ref="B2:B525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="M525" sqref="M525"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="416" spans="2:2">
       <c r="B416" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="434" spans="2:2">
       <c r="B434" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="456" spans="2:2">
       <c r="B456" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="480" spans="2:2">
       <c r="B480" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="503" spans="2:2">
       <c r="B503" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="525" spans="2:2">
       <c r="B525" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69365D5-B912-0647-966B-20E477C6A5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00852FC6-6342-D148-92BB-8C19C62A2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
+    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="進歩状況" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -344,6 +344,17 @@
     <t>EMSMページ：
 ①フロントエンドコーディング 100% 目標。
 ②バックエンド接続 80% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSMページ：
+①フロントエンドコーディング 95%完了。
+②バックエンド接続 50% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/19出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20539,8 +20550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -20693,7 +20704,21 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="114">
+      <c r="A10" s="3">
+        <v>45614</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -20948,7 +20973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00852FC6-6342-D148-92BB-8C19C62A2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B954D8-6133-D24A-A6F4-9E7A05406B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
+    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="進歩状況" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -357,6 +357,25 @@
     <t>11/19出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+EMSMページ：
+①フロントエンドコーディング 100%完了。
+②バックエンド接続 80% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMSMページ：
+バックエンド接続 100% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/20在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjustmentList.jsp</t>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,8 +595,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -590,7 +612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="863600" y="622300"/>
-          <a:ext cx="7048500" cy="27038300"/>
+          <a:ext cx="7048500" cy="5245100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4315,6 +4337,5130 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D4B1D5-C180-17BD-B693-318F9EAC7085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="4673600"/>
+          <a:ext cx="7772400" cy="3907611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B962A8A5-B608-3549-85AE-91FE1B73ED4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="6705600"/>
+          <a:ext cx="7048500" cy="5245100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;%@ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>page</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> language="java" contentType="text/html; charset=UTF-8" pageEncoding="UTF-8"%&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DOCTYPE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> html&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>head</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>meta</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> charset="UTF-8"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>title</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年末調整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>title</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>style</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.table-container {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>width: 50%;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>margin-left: 20px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>margin-bottom: 20px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>h1 {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>text-align: center;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>font-size: 24px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>font-weight: bold;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>width: 100%;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>margin-top: 20px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>border-collapse: collapse;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th, td {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>border: 2px solid #b3cbde;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>padding: 15px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>text-align: left;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>height: 40px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>width: 20%;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.upload-area {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>display: flex;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>justify-content: space-between; /* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>确保按钮在同一行并对齐到右侧 *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>align-items: center;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>margin-bottom: 20px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.file-list {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>list-style: none;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>padding: 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>margin-top: 10px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.file-item {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>margin-bottom: 5px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.file-input {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>display: none;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.custom-button {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>display: inline-block;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>padding: 10px 15px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>background-color: #7fa3bc;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>color: white;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cursor: pointer;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.delete-btn {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>margin-left: 10px;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cursor: pointer;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>style</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>head</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>div</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> class="table-container"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>h1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年末調整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>h1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;&lt;%= java.time.LocalDate.now().getYear() %&gt;&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アップロード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>div</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> class="upload-area"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>label</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> for="fileUpload" class="custom-button"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>label</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> type="file" id="fileUpload" multiple class="file-input" onchange="updateFileList()"/&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>button</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> onclick="submitFiles()" class="custom-button"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>確定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>button</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>div</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ul</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> id="fileList" class="file-list"&gt;&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ul</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>申請書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> id="requestFiles"&gt;&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>td</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thead</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> colspan="2" style="text-align: center;"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>社員名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>調整状況</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>thead</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tbody</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> id="employeeList"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;%-- Employee list will be fetched and displayed by JavaScript --%&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tbody</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>div</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>script</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>document.addEventListener("DOMContentLoaded", </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fetch("/getAdjustmentData")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.then(response =&gt; response.json())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.then(data =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> requestFiles = data.requestFiles;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> requestFilesContainer = document.getElementById("requestFiles");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>requestFiles.forEach(file =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> link = document.createElement("a");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>link.href = "/download/" + file.fileName;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>link.textContent = file.fileName;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>requestFilesContainer.appendChild(link);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>requestFilesContainer.appendChild(document.createElement("br"));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> employeeList = document.getElementById("employeeList");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>data.employees.forEach(employee =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> tr = document.createElement("tr");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> nameTd = document.createElement("td");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> statusTd = document.createElement("td");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nameTd.textContent = employee.employeeName;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>statusTd.textContent = employee.adjustmentStatus === "0" ? "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>調整中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>調整済</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>";</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr.appendChild(nameTd);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tr.appendChild(statusTd);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>employeeList.appendChild(tr);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>catch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(error =&gt; console.error("Error loading data:", error));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> updateFileList() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> input = document.getElementById('fileUpload');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> fileList = document.getElementById('fileList');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fileList.innerHTML = '';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Array.from(input.files).forEach((file, index) =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> li = document.createElement('li');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>li.textContent = file.name;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>li.classList.add('file-item');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> deleteBtn = document.createElement('button');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deleteBtn.textContent = '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>';</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deleteBtn.className = 'delete-btn';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>deleteBtn.onclick = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>() { </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.parentElement.remove(); };</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>li.appendChild(deleteBtn);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fileList.appendChild(li);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> submitFiles() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> files = document.getElementById('fileUpload').files;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (files.length === 0) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alert('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>してください。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>');</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> formData = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> FormData();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (let i = 0; i &lt; files.length; i++) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>formData.append('files', files[i]);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fetch('/uploadFile', {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>method: 'POST',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body: formData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.then(response =&gt; response.json())</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.then(data =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alert(data.message);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>location.reload(); // Reload to update the file list</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>catch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(error =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>console.error('Error:', error);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alert('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルのアップロードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>失敗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>しました</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>');</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>script</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>body</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20550,8 +25696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -20719,7 +25865,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="114">
+      <c r="A11" s="3">
+        <v>45615</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -20971,15 +26133,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B954D8-6133-D24A-A6F4-9E7A05406B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2154DF6-3256-964E-B4E7-2685EF50EFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" activeTab="2" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
+    <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="進歩状況" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -375,6 +375,16 @@
   </si>
   <si>
     <t>adjustmentList.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSMページ：
+①バックエンド接続 90% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/21出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -25696,8 +25706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -25865,7 +25875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="114">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
       <c r="A11" s="3">
         <v>45615</v>
       </c>
@@ -25882,7 +25892,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A12" s="3">
+        <v>45616</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -26135,8 +26161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2154DF6-3256-964E-B4E7-2685EF50EFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78219312-C0E3-EB43-8579-6A41E7FFB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -386,6 +386,16 @@
     <t>11/21出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>11/22出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSMページ：
+①バックエンド接続 95% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25706,8 +25716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -25909,7 +25919,23 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A13" s="3">
+        <v>45617</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78219312-C0E3-EB43-8579-6A41E7FFB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337A6F81-0969-9C42-95DF-EBBE2BEB02B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="web" sheetId="2" r:id="rId3"/>
     <sheet name="Back-end" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -48,9 +70,6 @@
   </si>
   <si>
     <t>) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4;</t>
-  </si>
-  <si>
-    <t>CREATE TABLE `adjustmentRequest` (</t>
   </si>
   <si>
     <t xml:space="preserve">    `fileID` INT AUTO_INCREMENT PRIMARY KEY,</t>
@@ -271,30 +290,6 @@
     <t xml:space="preserve">    FOREIGN KEY (`employeeID`) REFERENCES `employee`(`employeeID`) ON DELETE CASCADE</t>
   </si>
   <si>
-    <t>CREATE TABLE adjustmentRequestFiles (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    fileID INT AUTO_INCREMENT PRIMARY KEY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    requestID INT NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    fileName VARCHAR(255) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    fileULStatus VARCHAR(1) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    fileInsertDate DATE NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    fileUpdateDate DATE NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FOREIGN KEY (requestID) REFERENCES adjustmentRequest(id) ON DELETE CASCADE</t>
-  </si>
-  <si>
     <t>CREATE TABLE `adjustmentDetail` (</t>
   </si>
   <si>
@@ -322,16 +317,10 @@
     <t>CREATE TABLE `adjustmentFile` (</t>
   </si>
   <si>
-    <t xml:space="preserve">    `detailID` INT NOT NULL,</t>
-  </si>
-  <si>
     <t xml:space="preserve">    `fileType` VARCHAR(255) NOT NULL,</t>
   </si>
   <si>
     <t xml:space="preserve">    `filePath` VARCHAR(255) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FOREIGN KEY (`detailID`) REFERENCES `adjustmentDetail`(`id`) ON DELETE CASCADE</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -395,6 +384,66 @@
 EMSMページ：
 ①バックエンド接続 95% 完了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EMSMページ：
+①バックエンド接続 100% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度調整個人別画面
+①フロントエンドコーディング 50% 目標。
+②バックエンド接続 20% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE ems.adjustmentRequest (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (`employeeID`) REFERENCES `ems`.`employee`(`employeeID`) ON DELETE CASCADE,</t>
+  </si>
+  <si>
+    <t>CREATE TABLE ems.adjustmentRequestFiles (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `employeeID` VARCHAR(6),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `fileULStatus` VARCHAR(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `fileInsertDate` DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    `fileUpdateDate` DATE NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INDEX `idx_employee_id` (`employeeID`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INDEX `idx_employee_email` (`employeeEmail`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INDEX(`fileYear`, `fileName`),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (`employeeID`) REFERENCES `ems`.`employee`(`employeeID`) ON DELETE SET NULL</t>
+  </si>
+  <si>
+    <t>ALTER TABLE `adjustmentDetail`</t>
+  </si>
+  <si>
+    <t>MODIFY COLUMN `adjustmentStatus` VARCHAR(50) DEFAULT '0:未調整';</t>
+  </si>
+  <si>
+    <t>ALTER TABLE ems.adjustmentRequestFiles</t>
+  </si>
+  <si>
+    <t>ADD CONSTRAINT uniq_employee_file UNIQUE (employeeID, fileYear, fileName);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE ems.adjustmentFile</t>
   </si>
 </sst>
 </file>
@@ -25717,7 +25766,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -25729,19 +25778,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="152">
@@ -25749,16 +25798,16 @@
         <v>45602</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="114">
@@ -25766,16 +25815,16 @@
         <v>45603</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114">
@@ -25783,13 +25832,13 @@
         <v>45604</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="114">
@@ -25797,16 +25846,16 @@
         <v>45607</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="114">
@@ -25814,16 +25863,16 @@
         <v>45608</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="57">
@@ -25831,16 +25880,16 @@
         <v>45609</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="133">
@@ -25848,14 +25897,14 @@
         <v>45610</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="114">
@@ -25863,10 +25912,10 @@
         <v>45611</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -25875,14 +25924,14 @@
         <v>45614</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
@@ -25890,16 +25939,16 @@
         <v>45615</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
@@ -25907,16 +25956,16 @@
         <v>45616</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
@@ -25924,19 +25973,31 @@
         <v>45617</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A14" s="3">
+        <v>45618</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+    </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25949,232 +26010,288 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48863C43-C921-ED48-90B0-7E1238AE724B}">
-  <dimension ref="B2:B50"/>
+  <dimension ref="B2:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>2</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>53</v>
+      <c r="B42" t="e" cm="1">
+        <f t="array" ref="B42">-- 创建 adjustmentRequestFiles 表</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D44B48A-66B1-AC40-AD88-00111379E424}">
   <dimension ref="B2:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -26195,12 +26312,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -26222,57 +26339,57 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" spans="2:2">
       <c r="B330" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="416" spans="2:2">
       <c r="B416" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="434" spans="2:2">
       <c r="B434" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" spans="2:2">
       <c r="B456" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="480" spans="2:2">
       <c r="B480" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="503" spans="2:2">
       <c r="B503" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="525" spans="2:2">
       <c r="B525" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337A6F81-0969-9C42-95DF-EBBE2BEB02B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112B7250-8B81-284C-AB72-5028C58EE77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -445,6 +445,26 @@
   <si>
     <t>ALTER TABLE ems.adjustmentFile</t>
   </si>
+  <si>
+    <t>年度調整個人別画面
+①フロントエンドコーディング 50% 完了。
+②バックエンド接続 20%  完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度調整個人別画面
+①フロントエンドコーディング 80% 目標。
+②バックエンド接続 50% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バックエンドコードにまだ未解決のエラーがあるため、フロントエンドのコードのみをアップロードしました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/26出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25766,7 +25786,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -25998,7 +26018,23 @@
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A15" s="3">
+        <v>45621</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112B7250-8B81-284C-AB72-5028C58EE77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A1B0D-2D85-5048-8F7C-15416F8F450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -465,6 +465,25 @@
     <t>11/26出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>INSERT INTO ems.ofcfunction (`functionID`, `functionName`, `functionText`, `authority`, `functionLink`, `displayNo`, `sysType`, `deleteFlg`, `insertDate`, `updateDate`)VALUES ('B6', 'adjustmentInfoEdit', '&amp;#xe60c;&amp;emsp;年末調整個人別', 1, '/emsm/adjustmentInfoEdit',11, '1', 0, DATE_FORMAT(CURDATE(), '%Y%m%d'), DATE_FORMAT(CURDATE(), '%Y%m%d'));</t>
+  </si>
+  <si>
+    <t>年度調整個人別画面
+①フロントエンドコーディング 80% 完了。
+②バックエンド接続 50%  完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度調整個人別画面
+①フロントエンドコーディング 100% 目標。
+②バックエンド接続 80% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/27在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25783,10 +25802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26035,6 +26054,21 @@
         <v>99</v>
       </c>
     </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A16" s="3">
+        <v>45622</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26046,11 +26080,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48863C43-C921-ED48-90B0-7E1238AE724B}">
-  <dimension ref="B2:B66"/>
+  <dimension ref="B2:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -26061,272 +26093,277 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>80</v>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>51</v>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="e" cm="1">
-        <f t="array" ref="B42">-- 创建 adjustmentRequestFiles 表</f>
+    <row r="44" spans="2:2">
+      <c r="B44" t="e" cm="1">
+        <f t="array" ref="B44">-- 创建 adjustmentRequestFiles 表</f>
         <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>94</v>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>94</v>
       </c>
     </row>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A1B0D-2D85-5048-8F7C-15416F8F450A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D752273-84DA-964B-8B85-6C8CAAB90C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -484,6 +484,21 @@
     <t>11/27在宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>年度調整個人別画面
+①フロントエンドコーディング 100% 完了。
+②バックエンド接続 90%  完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度調整個人別画面
+①バックエンド接続 100% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/28出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25802,10 +25817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26067,6 +26082,21 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A17" s="3">
+        <v>45623</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D752273-84DA-964B-8B85-6C8CAAB90C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E4BAEA-FFED-6840-B1CA-C8C9A22EBAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -499,6 +499,37 @@
     <t>11/28出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>年度調整個人別画面
+①フロントエンドコーディング 100% 完了。
+②バックエンド接続 100%  完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+詳細設計_EMSM_年末調整 40% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 40% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/29出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 60% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 80% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/03出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25817,10 +25848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26097,6 +26128,49 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A18" s="3">
+        <v>45624</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A19" s="3">
+        <v>45625</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A20" s="3">
+        <v>45628</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E4BAEA-FFED-6840-B1CA-C8C9A22EBAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECACD7C-25B8-454A-B9A4-0FAD83253F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -523,11 +523,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>詳細設計_EMSM_年末調整 80% 完了。</t>
+    <t>12/03出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/03出勤</t>
+    <t>詳細設計_EMSM_年末調整 90% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 60% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 80% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 100% 目標。
+詳細設計_EMS_年末調整 50% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/04在宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25848,7 +25865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -26153,7 +26170,7 @@
         <v>109</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -26166,11 +26183,26 @@
         <v>111</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A21" s="3">
+        <v>45629</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>113</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECACD7C-25B8-454A-B9A4-0FAD83253F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698FB241-6F8F-5741-995F-172F163690F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -547,6 +547,19 @@
     <t>12/04在宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>12/5出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 100% 完了。
+詳細設計_EMS_年末調整 20% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細設計_EMS_年末調整 70% 目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25865,10 +25878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26203,6 +26216,21 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A22" s="3">
+        <v>45630</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698FB241-6F8F-5741-995F-172F163690F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BCD58-512E-E645-925C-979A39A3F763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -560,6 +560,35 @@
     <t>詳細設計_EMS_年末調整 70% 目標。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>詳細設計_EMSM_年末調整 100% 完了。
+詳細設計_EMS_年末調整 100% 完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単体テスト30%目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/6出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMSとEMSMコード改修。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMSとEMSMコード改修完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/11在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/10出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25878,10 +25907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26231,6 +26260,64 @@
       <c r="D22" s="4"/>
       <c r="E22" s="5" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A23" s="3">
+        <v>45631</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A24" s="3">
+        <v>45632</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A25" s="3">
+        <v>45635</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A26" s="3">
+        <v>45636</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BCD58-512E-E645-925C-979A39A3F763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D7026-F955-8342-8FF3-69E179C65721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -589,6 +589,30 @@
     <t>12/10出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>単体テスト80%完了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書30%目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書30%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書80%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/12出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/13出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25907,10 +25931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26320,6 +26344,36 @@
         <v>126</v>
       </c>
     </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A27" s="3">
+        <v>45637</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A28" s="3">
+        <v>45638</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D7026-F955-8342-8FF3-69E179C65721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2663EE-5351-C045-A926-F483EB27F535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -613,6 +613,14 @@
     <t>12/13出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>結合テスト仕様書90%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書100%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -25931,10 +25939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26374,6 +26382,19 @@
         <v>133</v>
       </c>
     </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A29" s="3">
+        <v>45639</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2663EE-5351-C045-A926-F483EB27F535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390654C1-7F2C-2C49-ADA5-308454A65C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -602,10 +602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>結合テスト仕様書80%完了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12/12出勤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -621,12 +617,40 @@
     <t>結合テスト仕様書100%完了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>結合テスト仕様書80%目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト仕様書100%目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト実施30%目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト実施30%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト実施70%目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/17出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/18在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,6 +683,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -682,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +731,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25609,8 +25647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}" name="表1" displayName="表1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E15" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}" name="表1" displayName="表1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E31" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F85F0879-CDA9-AF44-AC78-D55487A6CFC9}" name="日付" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{1FCA0AB4-3826-6A44-8A31-B715C6D53F02}" name="当日の進歩" dataDxfId="3"/>
@@ -25939,10 +25977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26210,14 +26248,14 @@
       <c r="A17" s="3">
         <v>45623</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -26225,14 +26263,14 @@
       <c r="A18" s="3">
         <v>45624</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -26240,27 +26278,27 @@
       <c r="A19" s="3">
         <v>45625</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
       <c r="A20" s="3">
         <v>45628</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -26268,14 +26306,14 @@
       <c r="A21" s="3">
         <v>45629</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -26283,14 +26321,14 @@
       <c r="A22" s="3">
         <v>45630</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -26298,14 +26336,14 @@
       <c r="A23" s="3">
         <v>45631</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -26313,27 +26351,27 @@
       <c r="A24" s="3">
         <v>45632</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
       <c r="A25" s="3">
         <v>45635</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -26341,14 +26379,14 @@
       <c r="A26" s="3">
         <v>45636</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -26356,44 +26394,74 @@
       <c r="A27" s="3">
         <v>45637</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
-        <v>132</v>
+      <c r="E27" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
       <c r="A28" s="3">
         <v>45638</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>131</v>
+      <c r="C28" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="5" t="s">
-        <v>133</v>
+      <c r="E28" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
       <c r="A29" s="3">
         <v>45639</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A30" s="3">
+        <v>45642</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>135</v>
+      <c r="C30" s="6" t="s">
+        <v>137</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A31" s="3">
+        <v>45642</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390654C1-7F2C-2C49-ADA5-308454A65C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E6470-3BB8-A441-9330-235C357F2C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -645,6 +645,42 @@
     <t>12/18在宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>結合テスト実施50%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/19出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/20出勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機能改修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト実施80%目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/24在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト実施75%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト実施100%目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/25在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -714,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +773,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25647,8 +25686,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}" name="表1" displayName="表1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E31" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}" name="表1" displayName="表1" ref="A1:E62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E62" xr:uid="{183DE463-F987-1646-A813-27BB0D98E41D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F85F0879-CDA9-AF44-AC78-D55487A6CFC9}" name="日付" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{1FCA0AB4-3826-6A44-8A31-B715C6D53F02}" name="当日の進歩" dataDxfId="3"/>
@@ -25977,10 +26016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0C5B9-1020-3F44-9060-06393E1D6DE7}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26450,7 +26489,7 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
       <c r="A31" s="3">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>138</v>
@@ -26462,6 +26501,261 @@
       <c r="E31" s="7" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A32" s="3">
+        <v>45644</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A33" s="3">
+        <v>45645</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A34" s="3">
+        <v>45646</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A35" s="3">
+        <v>45649</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A36" s="3">
+        <v>45650</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DOC/教育/個人/楊/進歩状況.xlsx
+++ b/DOC/教育/個人/楊/進歩状況.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/教育/個人/楊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E6470-3BB8-A441-9330-235C357F2C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90517C59-5C47-C244-9C7A-731F031DA84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="2020" windowWidth="26900" windowHeight="17540" xr2:uid="{0F88F648-F517-6644-8BA7-04EE6616FCD0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="154">
   <si>
     <t xml:space="preserve">    `year` INT NOT NULL,</t>
   </si>
@@ -681,6 +681,18 @@
     <t>12/25在宅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>12/26在宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結合テスト実施100%完了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約情報管理機能改修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -26019,7 +26031,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -26575,12 +26587,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="8"/>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="115" customHeight="1">
+      <c r="A37" s="3">
+        <v>45651</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="A38" s="1"/>
